--- a/Output_testing/R1_201907/Country/HKD/MN/BURKINA FASO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BURKINA FASO_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>194</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/BURKINA FASO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BURKINA FASO_201907_HKD_MN.xlsx
@@ -618,11 +618,15 @@
       <c r="E9" s="8" t="n">
         <v>2.680841</v>
       </c>
-      <c r="F9" s="8" t="n">
-        <v>0.164732</v>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G9" s="8" t="n">
-        <v>0.292771</v>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H9" s="9" t="n">
         <v>-65.25265127885216</v>
@@ -646,17 +650,25 @@
       <c r="C10" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="D10" s="8" t="n">
-        <v>0.382981</v>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>0.045449</v>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0.160373</v>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.026409</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-88.13283165483405</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/BURKINA FASO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BURKINA FASO_201907_HKD_MN.xlsx
@@ -822,136 +822,491 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>136.069787</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>93.23932690351225</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>334.700417</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>97.79993633983034</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>355.598193</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>96.34735173110356</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>190.765633</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>96.98480570148885</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-17.21049180298272</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.955334</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.654625108864468</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1.08309</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0.3164804334567257</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>2.015622</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0.5461215653335741</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1.071641</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0.5448198007800976</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>70.65271049706512</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2.267421</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.553708670440475</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.574533</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.460080774757332</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>4.95389</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.342228930469274</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1.064124</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0.5409981754013896</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-77.38389342764114</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>0.5470159999999999</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.3748326852709166</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>0.552468</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.1614319328134969</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>0.726332</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.1967956138561028</v>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0.2396805285904249</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>33.82773734231115</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.2316569963665631</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PREFABRICATED BUILDINGS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0.735751</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2149874852470426</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.1132927063351068</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.1958053002003921</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>BALL OR ROLLER BEARINGS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.1938159400691051</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>0.6009100000000001</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.4117625607041594</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.925179</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.2703386153921281</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>0.7713449999999999</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.2089916357393528</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.1648164278665134</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-36.44905248342067</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2.057684</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.409990236408077</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.6390749999999999</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.1867386209930449</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.07718014816997464</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.1625581253612293</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>215.3313609467455</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.09164836492829195</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1.023663</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.2773557938611816</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.1176818619345227</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-35.01497758275571</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>3.304146</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>2.264105469871371</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1.991517</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0.5819240907001616</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>3.228743</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0.8748099500897589</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1.226129</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>0.6233611419409114</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-42.49751208316255</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -983,136 +1338,605 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>59.71582427865052</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>0.6009100000000001</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>97.60261178878295</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.8986189999999999</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>99.7150424939552</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0.7713449999999999</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>99.7413832118912</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>40.28417572134948</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-39.74237585837142</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.397388211217048</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.2849575060448054</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.2586167881088001</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>OIL SEEDS AND OLEAGINOUS FRUITS OF A KIND USED FOR THE EXTRACTION OF 'SOFT' FIXED VEGETABLE OILS (EXCLUDING FLOURS AND MEALS)</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SYNTHETIC ORGANIC COLOURING MATTER AND COLOUR LAKES, AND PREPARATIONS BASED THEREON</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1144,136 +1968,503 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>136.069787</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>93.63434828987781</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>334.700417</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>98.05815102442911</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>355.598193</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>96.54965562753944</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>190.765633</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>97.36250635375457</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-17.21049180298272</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>0.955334</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0.6573985192551387</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1.08309</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0.3173160157522269</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>2.015622</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>0.5472682758410201</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1.071641</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>0.5469415640051051</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>70.65271049706512</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2.267421</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.560291173482788</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1.574533</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.4612954955085922</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>4.95389</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.345047255391175</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1.064124</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>0.5431050555693264</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-77.38389342764114</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>0.532256</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.3662638472666765</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.5499000000000001</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.1611057964362607</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>0.724332</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.1966658057792968</v>
+      </c>
+      <c r="I47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>0.2406139479165679</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>34.59186470097866</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PREFABRICATED BUILDINGS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>0.735751</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.215555102443672</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.1135305909839068</v>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.196567850468631</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>BALL OR ROLLER BEARINGS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H49" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.1945707429112009</v>
+      </c>
+      <c r="K49" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.057684</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.415963856300509</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>0.6390749999999999</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.1872316545872036</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.07734220602026055</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.1631911967948001</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>215.3313609467455</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.09203664598280423</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.023663</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.2779381674997823</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.1181401658481205</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-35.01497758275571</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.1150375804043133</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.0520929249913414</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.0836702833503654</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>3.268007</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>2.248829166255391</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1.763076</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>0.516533484556568</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>3.150076</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>0.8552876785866483</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>0.853594</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>0.4356552589770023</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-59.94848069668362</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1305,136 +2496,591 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>1.970593522767085</v>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>7.928631351131978</v>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>28.89420391909283</v>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>60.72937551875015</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>1.359776411333466</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>56.56338780564796</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>38.19367355373312</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>104.9186336314323</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.09898591605522525</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.6821366877035975</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>14.54240827525921</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>1.076950927516728</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-79.8440196893179</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.3685044624022665</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>89.52414559461005</v>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OIL SEEDS AND OLEAGINOUS FRUITS OF A KIND USED FOR THE EXTRACTION OF 'SOFT' FIXED VEGETABLE OILS (EXCLUDING FLOURS AND MEALS)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.865086366554376</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>7.201825</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>93.34545566248823</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PHOTOGRAPHIC APPARATUS AND EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.856684024953731</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SYNTHETIC ORGANIC COLOURING MATTER AND COLOUR LAKES, AND PREPARATIONS BASED THEREON</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
